--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>44076.69513888889</v>
+        <v>44076.69512731482</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>19.22</v>
@@ -1609,7 +1609,7 @@
         <v>15.12</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>58.45</v>
+        <v>58.46</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>23.27</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>17.35</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44076.70207175926</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>13.96</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>40.75</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>33.47</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>57.91</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>10.14</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>15.05</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>16.36</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>215.87</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>41.03</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>27.68</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>14.52</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>7.66</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>16.92</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -444,9 +444,9 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -473,7 +473,7 @@
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>1.68</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>3.58</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>2.79</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>4.07</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>0.42</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>19.29</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>3.65</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>2.38</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>2.08</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>1.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>3.64</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>28.06</v>
+        <v>2.81</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.21</v>
+        <v>2.22</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.63</v>
+        <v>3.96</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.7</v>
+        <v>1.17</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>147.19</v>
+        <v>14.72</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.43</v>
+        <v>2.84</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.28</v>
+        <v>1.93</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.75</v>
+        <v>1.18</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.35</v>
+        <v>3.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.15</v>
+        <v>2.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.85</v>
+        <v>3.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.29</v>
+        <v>1.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.33</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.18</v>
+        <v>14.72</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.4</v>
+        <v>2.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.85</v>
+        <v>1.89</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.42</v>
+        <v>0.74</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.75</v>
+        <v>0.88</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.32</v>
+        <v>3.63</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.49</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.32</v>
+        <v>3.13</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.33</v>
+        <v>2.53</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>43.92</v>
+        <v>4.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.98</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.35</v>
+        <v>16.43</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>31.54</v>
+        <v>3.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.65</v>
+        <v>0.97</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>39.95</v>
+        <v>4</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>44076.66041666667</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q6" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.85</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.640000000000001</v>
-      </c>
       <c r="R6" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>147.19</v>
+        <v>14.72</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>28.41</v>
+        <v>2.84</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>19.01</v>
+        <v>1.9</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>36.77</v>
+        <v>3.68</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>44076.66736111111</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>16.33</v>
+        <v>1.63</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>12.05</v>
+        <v>1.2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>35.52</v>
+        <v>3.55</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>28.97</v>
+        <v>2.9</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>49.42</v>
+        <v>4.94</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>19.78</v>
+        <v>1.98</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>14.26</v>
+        <v>1.43</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.11</v>
+        <v>0.41</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>18.18</v>
+        <v>1.82</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>10.78</v>
+        <v>1.08</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>187.24</v>
+        <v>18.72</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>35.73</v>
+        <v>3.57</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>24.01</v>
+        <v>2.4</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>24.06</v>
+        <v>2.41</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>10.87</v>
+        <v>1.09</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>44.9</v>
+        <v>4.49</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>44076.67430555556</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J8" s="4" t="n">
         <v>0.8</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>32.39</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>26.44</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>11.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>46.27</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>18.03</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>8.02</v>
-      </c>
       <c r="K8" s="4" t="n">
-        <v>11.84</v>
+        <v>1.18</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>170.08</v>
+        <v>17.01</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>32.62</v>
+        <v>3.26</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>21.92</v>
+        <v>2.19</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>22.37</v>
+        <v>2.24</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>8.42</v>
+        <v>0.84</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>42.1</v>
+        <v>4.21</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>13.45</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>44076.68125</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>15.37</v>
+        <v>1.54</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>33.43</v>
+        <v>3.34</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>27.34</v>
+        <v>2.73</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.1</v>
+        <v>1.21</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>47.34</v>
+        <v>4.73</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.86</v>
+        <v>0.39</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>17.14</v>
+        <v>1.71</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>175.8</v>
+        <v>17.58</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>33.65</v>
+        <v>3.37</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>22.65</v>
+        <v>2.26</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.94</v>
+        <v>2.29</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>43.03</v>
+        <v>4.3</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.26</v>
+        <v>0.63</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.88</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>44076.68819444445</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.85</v>
+        <v>1.59</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.48</v>
+        <v>3.45</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>28.24</v>
+        <v>2.82</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.48</v>
+        <v>1.25</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.79</v>
+        <v>4.88</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>19.2</v>
+        <v>1.92</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>181.52</v>
+        <v>18.15</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>34.71</v>
+        <v>3.47</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.38</v>
+        <v>2.34</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.66</v>
+        <v>2.37</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.12</v>
+        <v>1.01</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.54</v>
+        <v>1.45</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>44.34</v>
+        <v>4.43</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.32</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,34 +446,34 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>3.22</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>2.42</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>3.5</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>1.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>1.17</v>
       </c>
       <c r="P2" s="4" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.08</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>0.95</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.33</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.14</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.81</v>
+        <v>2.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.22</v>
+        <v>2.04</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.96</v>
+        <v>3.63</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.72</v>
+        <v>13.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.63</v>
+        <v>3.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,52 +863,52 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
@@ -917,49 +917,49 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.72</v>
+        <v>15.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.63</v>
+        <v>3.72</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="5">
@@ -967,727 +967,207 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>1.15</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.13</v>
+        <v>2.52</v>
       </c>
       <c r="F5" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="U5" s="4" t="n">
         <v>2.53</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.15</v>
-      </c>
       <c r="V5" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>1.04</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.32</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4</v>
+        <v>3.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>44076.66041666667</v>
+        <v>44076.6604050926</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.3</v>
+        <v>12.45</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.95</v>
+        <v>9.16</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.09</v>
+        <v>0.85</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.82</v>
+        <v>27.28</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.29</v>
+        <v>21.96</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.02</v>
+        <v>9.74</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.04</v>
+        <v>38.22</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.57</v>
+        <v>15.12</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.66</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.02</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.13</v>
+        <v>10.89</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.19</v>
+        <v>11.58</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.33</v>
+        <v>3.14</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.02</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.44</v>
+        <v>13.86</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.86</v>
+        <v>8.33</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.54</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>14.72</v>
+        <v>141.46</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2.84</v>
+        <v>27.34</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.9</v>
+        <v>18.27</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.99</v>
+        <v>9.58</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.16</v>
+        <v>1.54</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.95</v>
+        <v>18.52</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.83</v>
+        <v>7.97</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.74</v>
+        <v>7.11</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.87</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.19</v>
+        <v>11.32</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>3.68</v>
+        <v>34.78</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.52</v>
+        <v>5.02</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44076.66736111111</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44076.67430555556</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44076.68125</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44076.68819444445</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44076.69512731482</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>41.8</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>34.31</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>58.46</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>16.78</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>221.58</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>42.05</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>28.37</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>14.88</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>28.48</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>10.81</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>17.63</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>17.35</v>
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -448,24 +448,24 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>170.03</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>31.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.96</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.63</v>
+        <v>26.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.37</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.63</v>
+        <v>36.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.38</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.1</v>
+        <v>11.01</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.57</v>
+        <v>135.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.63</v>
+        <v>26.32</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.25</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.86</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.84</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.62</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.34</v>
+        <v>33.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.68</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.41</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.34</v>
+        <v>23.37</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.46</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.08</v>
+        <v>40.79</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.86</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>15.29</v>
+        <v>152.9</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.94</v>
+        <v>29.44</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.95</v>
+        <v>19.54</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.83</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>3.72</v>
+        <v>37.22</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.52</v>
+        <v>25.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.61</v>
+        <v>36.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1</v>
+        <v>10.04</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13</v>
+        <v>130.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.53</v>
+        <v>25.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.29</v>
+        <v>32.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44076.63263888889</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.63958333333</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.96</v>
+        <v>11.957</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.382</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.63</v>
+        <v>1.628</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.29</v>
+        <v>26.295</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.37</v>
+        <v>20.369</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>9.292</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>36.32</v>
+        <v>36.324</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.54</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.19</v>
+        <v>6.185</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.956</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.38</v>
+        <v>10.376</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.01</v>
+        <v>11.014</v>
       </c>
       <c r="N3" s="4" t="n">
         <v>3.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.157</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.27</v>
+        <v>8.275</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.43</v>
+        <v>1.427</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.893</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.74</v>
+        <v>135.742</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.32</v>
+        <v>26.324</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.25</v>
+        <v>17.245</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.98</v>
+        <v>8.981</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.86</v>
+        <v>1.858</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.84</v>
+        <v>17.841</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.66</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.96</v>
+        <v>6.965</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>8.220000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.62</v>
+        <v>10.617</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>33.44</v>
+        <v>33.438</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.68</v>
+        <v>4.678</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.64652777778</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.4</v>
+        <v>13.402</v>
       </c>
       <c r="C4" s="4" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.209</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>29.41</v>
+        <v>29.415</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.37</v>
+        <v>23.367</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.46</v>
+        <v>10.457</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.79</v>
+        <v>40.792</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.09</v>
+        <v>7.091</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>10.36</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.7</v>
+        <v>11.699</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.43</v>
+        <v>12.428</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.4</v>
+        <v>3.399</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.86</v>
+        <v>14.856</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.08</v>
+        <v>9.083</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.724</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.9</v>
+        <v>152.903</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.44</v>
+        <v>29.436</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.54</v>
+        <v>19.536</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>10.23</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.83</v>
+        <v>19.831</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.71</v>
+        <v>7.709</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.09</v>
+        <v>12.093</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>37.22</v>
+        <v>37.215</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>5.35</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.148</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>10.41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.6604050926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.22</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.48</v>
+        <v>11.484</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.369</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>25.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.11</v>
+        <v>20.112</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.965999999999999</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.08</v>
+        <v>36.076</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.93</v>
+        <v>8.926</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.04</v>
+        <v>10.043</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>10.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.899</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.76</v>
+        <v>12.762</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.76</v>
+        <v>7.761</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.02</v>
+        <v>130.018</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.27</v>
+        <v>25.267</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.81</v>
+        <v>16.809</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.801</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.38</v>
+        <v>17.383</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.6</v>
+        <v>6.596</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.76</v>
+        <v>7.757</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.4</v>
+        <v>10.399</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>32.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.6</v>
+        <v>4.602</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.6604050926</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>38.22</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.27</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>34.78</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_15.xlsx
+++ b/DATA_goal/Junction_Flooding_15.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44076.65347222222</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>11.484</v>
+        <v>11.48</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>8.369</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>25.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>20.112</v>
+        <v>20.11</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.965999999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.076</v>
+        <v>36.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.961</v>
+        <v>13.96</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>6.11</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>8.926</v>
+        <v>8.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.043</v>
+        <v>10.04</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>10.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.899</v>
+        <v>2.9</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.023</v>
+        <v>9.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>12.762</v>
+        <v>12.76</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.761</v>
+        <v>7.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.57</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>130.018</v>
+        <v>130.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>25.267</v>
+        <v>25.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.329000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>16.809</v>
+        <v>16.81</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>8.801</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.5</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>17.383</v>
+        <v>17.38</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.357</v>
+        <v>7.36</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.596</v>
+        <v>6.6</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.757</v>
+        <v>7.76</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.399</v>
+        <v>10.4</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>32.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.602</v>
+        <v>4.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>10.413</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.6604050926</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.28</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>38.22</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.27</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.359999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>34.78</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
+        <v>10.41</v>
       </c>
     </row>
   </sheetData>
